--- a/tools/demo.xlsx
+++ b/tools/demo.xlsx
@@ -4,21 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="976"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="育才幼" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="2021育才幼 " sheetId="7" r:id="rId1"/>
+    <sheet name="2010育才幼 " sheetId="8" r:id="rId2"/>
+    <sheet name="2022育才幼" sheetId="6" r:id="rId3"/>
+    <sheet name="统计结果" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">育才幼!$A$2:$U$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2021育才幼 '!$A$2:$U$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2010育才幼 '!$A$2:$U$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2022育才幼'!$A$2:$U$30</definedName>
+    <definedName name="_xlnm._FilterDatabase">'2022育才幼'!$A$2:$U$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="205">
   <si>
     <t>2022年职工花名册表
 顺序：正副园长、保教主任、教师、保健员、保育员、专职财务、后勤人员</t>
@@ -134,6 +139,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -174,6 +185,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -202,6 +219,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -278,6 +301,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -387,6 +416,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -475,6 +510,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -491,6 +532,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -535,6 +583,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>201</t>
     </r>
     <r>
@@ -567,6 +622,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2018-</t>
     </r>
     <r>
@@ -587,6 +649,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -612,10 +681,89 @@
     <t>18925072295</t>
   </si>
   <si>
+    <t>佛山禅城</t>
+  </si>
+  <si>
+    <t>1998.07</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2022.02.10</t>
+  </si>
+  <si>
+    <t>2022.02</t>
+  </si>
+  <si>
+    <t>广州番禺</t>
+  </si>
+  <si>
+    <t>中共党员</t>
+  </si>
+  <si>
+    <t>1999.06.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 广东培正学院</t>
+  </si>
+  <si>
+    <t>经济统计学专业</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>广州 番禺</t>
+  </si>
+  <si>
+    <t>1999.10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>仡佬族</t>
+  </si>
+  <si>
+    <t>铜仁</t>
+  </si>
+  <si>
+    <t>共青团员</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>广西城市职业大学</t>
+  </si>
+  <si>
+    <t>学士</t>
+  </si>
+  <si>
+    <t>教师资格证</t>
+  </si>
+  <si>
+    <t>2022.02.24</t>
+  </si>
+  <si>
+    <t>广西罗城</t>
+  </si>
+  <si>
+    <t>广西梧州</t>
+  </si>
+  <si>
     <t>广东新丰</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1994</t>
     </r>
     <r>
@@ -648,6 +796,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -670,6 +823,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -684,6 +844,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -698,6 +865,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -719,9 +891,6 @@
     <t>吉首大学</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2021-08</t>
   </si>
   <si>
@@ -746,73 +915,7 @@
     <t>18666099161</t>
   </si>
   <si>
-    <t>佛山禅城</t>
-  </si>
-  <si>
-    <t>1998.07</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2022.02.10</t>
-  </si>
-  <si>
-    <t>2022.02</t>
-  </si>
-  <si>
-    <t>广州番禺</t>
-  </si>
-  <si>
-    <t>中共党员</t>
-  </si>
-  <si>
-    <t>1999.06.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 广东培正学院</t>
-  </si>
-  <si>
-    <t>经济统计学专业</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>广州 番禺</t>
-  </si>
-  <si>
-    <t>1999.10</t>
-  </si>
-  <si>
-    <t>仡佬族</t>
-  </si>
-  <si>
-    <t>铜仁</t>
-  </si>
-  <si>
-    <t>共青团员</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>广西城市职业大学</t>
-  </si>
-  <si>
-    <t>学士</t>
-  </si>
-  <si>
-    <t>教师资格证</t>
-  </si>
-  <si>
-    <t>2022.02.24</t>
-  </si>
-  <si>
-    <t>广西罗城</t>
-  </si>
-  <si>
-    <t>广西梧州</t>
+    <t>年份</t>
   </si>
   <si>
     <t>专任教师</t>
@@ -834,6 +937,15 @@
   </si>
   <si>
     <t>学前教育专业毕业人数</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -847,19 +959,35 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;.&quot;m&quot;.&quot;d"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="44">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -910,7 +1038,6 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -941,7 +1068,6 @@
     <font>
       <sz val="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -966,7 +1092,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -987,28 +1112,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1016,7 +1141,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,7 +1149,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1039,7 +1164,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1048,14 +1173,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1079,7 +1204,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1087,22 +1212,22 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1110,21 +1235,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1134,12 +1259,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1334,21 +1465,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1361,6 +1483,15 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1441,7 +1572,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1450,17 +1581,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1515,377 +1637,342 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1935,16 +2022,8 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="000000FF"/>
-      <color rgb="00FFFFFF"/>
-      <color rgb="00000000"/>
-    </mruColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2240,375 +2319,139 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="4.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10" style="5" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="4" customWidth="1"/>
-    <col min="13" max="13" width="3.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="4.375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="5.875" style="8" customWidth="1"/>
-    <col min="19" max="20" width="7.125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="4" customWidth="1"/>
-    <col min="22" max="22" width="5.75" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.12962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.12962962962963" style="6" customWidth="1"/>
+    <col min="5" max="5" width="4.12962962962963" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4.37962962962963" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.87962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.25" style="5" customWidth="1"/>
+    <col min="13" max="13" width="3.87962962962963" style="5" customWidth="1"/>
+    <col min="14" max="14" width="3.12962962962963" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.62962962962963" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.87962962962963" style="5" customWidth="1"/>
+    <col min="17" max="17" width="4.37962962962963" style="8" customWidth="1"/>
+    <col min="18" max="18" width="5.87962962962963" style="9" customWidth="1"/>
+    <col min="19" max="20" width="7.12962962962963" style="7" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.75" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="53.25" customHeight="1" spans="1:256">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="53.25" customHeight="1" spans="1:20">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4"/>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-      <c r="CX1" s="4"/>
-      <c r="CY1" s="4"/>
-      <c r="CZ1" s="4"/>
-      <c r="DA1" s="4"/>
-      <c r="DB1" s="4"/>
-      <c r="DC1" s="4"/>
-      <c r="DD1" s="4"/>
-      <c r="DE1" s="4"/>
-      <c r="DF1" s="4"/>
-      <c r="DG1" s="4"/>
-      <c r="DH1" s="4"/>
-      <c r="DI1" s="4"/>
-      <c r="DJ1" s="4"/>
-      <c r="DK1" s="4"/>
-      <c r="DL1" s="4"/>
-      <c r="DM1" s="4"/>
-      <c r="DN1" s="4"/>
-      <c r="DO1" s="4"/>
-      <c r="DP1" s="4"/>
-      <c r="DQ1" s="4"/>
-      <c r="DR1" s="4"/>
-      <c r="DS1" s="4"/>
-      <c r="DT1" s="4"/>
-      <c r="DU1" s="4"/>
-      <c r="DV1" s="4"/>
-      <c r="DW1" s="4"/>
-      <c r="DX1" s="4"/>
-      <c r="DY1" s="4"/>
-      <c r="DZ1" s="4"/>
-      <c r="EA1" s="4"/>
-      <c r="EB1" s="4"/>
-      <c r="EC1" s="4"/>
-      <c r="ED1" s="4"/>
-      <c r="EE1" s="4"/>
-      <c r="EF1" s="4"/>
-      <c r="EG1" s="4"/>
-      <c r="EH1" s="4"/>
-      <c r="EI1" s="4"/>
-      <c r="EJ1" s="4"/>
-      <c r="EK1" s="4"/>
-      <c r="EL1" s="4"/>
-      <c r="EM1" s="4"/>
-      <c r="EN1" s="4"/>
-      <c r="EO1" s="4"/>
-      <c r="EP1" s="4"/>
-      <c r="EQ1" s="4"/>
-      <c r="ER1" s="4"/>
-      <c r="ES1" s="4"/>
-      <c r="ET1" s="4"/>
-      <c r="EU1" s="4"/>
-      <c r="EV1" s="4"/>
-      <c r="EW1" s="4"/>
-      <c r="EX1" s="4"/>
-      <c r="EY1" s="4"/>
-      <c r="EZ1" s="4"/>
-      <c r="FA1" s="4"/>
-      <c r="FB1" s="4"/>
-      <c r="FC1" s="4"/>
-      <c r="FD1" s="4"/>
-      <c r="FE1" s="4"/>
-      <c r="FF1" s="4"/>
-      <c r="FG1" s="4"/>
-      <c r="FH1" s="4"/>
-      <c r="FI1" s="4"/>
-      <c r="FJ1" s="4"/>
-      <c r="FK1" s="4"/>
-      <c r="FL1" s="4"/>
-      <c r="FM1" s="4"/>
-      <c r="FN1" s="4"/>
-      <c r="FO1" s="4"/>
-      <c r="FP1" s="4"/>
-      <c r="FQ1" s="4"/>
-      <c r="FR1" s="4"/>
-      <c r="FS1" s="4"/>
-      <c r="FT1" s="4"/>
-      <c r="FU1" s="4"/>
-      <c r="FV1" s="4"/>
-      <c r="FW1" s="4"/>
-      <c r="FX1" s="4"/>
-      <c r="FY1" s="4"/>
-      <c r="FZ1" s="4"/>
-      <c r="GA1" s="4"/>
-      <c r="GB1" s="4"/>
-      <c r="GC1" s="4"/>
-      <c r="GD1" s="4"/>
-      <c r="GE1" s="4"/>
-      <c r="GF1" s="4"/>
-      <c r="GG1" s="4"/>
-      <c r="GH1" s="4"/>
-      <c r="GI1" s="4"/>
-      <c r="GJ1" s="4"/>
-      <c r="GK1" s="4"/>
-      <c r="GL1" s="4"/>
-      <c r="GM1" s="4"/>
-      <c r="GN1" s="4"/>
-      <c r="GO1" s="4"/>
-      <c r="GP1" s="4"/>
-      <c r="GQ1" s="4"/>
-      <c r="GR1" s="4"/>
-      <c r="GS1" s="4"/>
-      <c r="GT1" s="4"/>
-      <c r="GU1" s="4"/>
-      <c r="GV1" s="4"/>
-      <c r="GW1" s="4"/>
-      <c r="GX1" s="4"/>
-      <c r="GY1" s="4"/>
-      <c r="GZ1" s="4"/>
-      <c r="HA1" s="4"/>
-      <c r="HB1" s="4"/>
-      <c r="HC1" s="4"/>
-      <c r="HD1" s="4"/>
-      <c r="HE1" s="4"/>
-      <c r="HF1" s="4"/>
-      <c r="HG1" s="4"/>
-      <c r="HH1" s="4"/>
-      <c r="HI1" s="4"/>
-      <c r="HJ1" s="4"/>
-      <c r="HK1" s="4"/>
-      <c r="HL1" s="4"/>
-      <c r="HM1" s="4"/>
-      <c r="HN1" s="4"/>
-      <c r="HO1" s="4"/>
-      <c r="HP1" s="4"/>
-      <c r="HQ1" s="4"/>
-      <c r="HR1" s="4"/>
-      <c r="HS1" s="4"/>
-      <c r="HT1" s="4"/>
-      <c r="HU1" s="4"/>
-      <c r="HV1" s="4"/>
-      <c r="HW1" s="4"/>
-      <c r="HX1" s="4"/>
-      <c r="HY1" s="4"/>
-      <c r="HZ1" s="4"/>
-      <c r="IA1" s="4"/>
-      <c r="IB1" s="4"/>
-      <c r="IC1" s="4"/>
-      <c r="ID1" s="4"/>
-      <c r="IE1" s="4"/>
-      <c r="IF1" s="4"/>
-      <c r="IG1" s="4"/>
-      <c r="IH1" s="4"/>
-      <c r="II1" s="4"/>
-      <c r="IJ1" s="4"/>
-      <c r="IK1" s="4"/>
-      <c r="IL1" s="4"/>
-      <c r="IM1" s="4"/>
-      <c r="IN1" s="4"/>
-      <c r="IO1" s="4"/>
-      <c r="IP1" s="4"/>
-      <c r="IQ1" s="4"/>
-      <c r="IR1" s="4"/>
-      <c r="IS1" s="4"/>
-      <c r="IT1" s="4"/>
-      <c r="IU1" s="4"/>
-      <c r="IV1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="46"/>
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:22">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="57"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
-      <c r="A3" s="11">
+      <c r="V2" s="48"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -2617,59 +2460,59 @@
       <c r="F3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="25" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="27" t="s">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="29"/>
-      <c r="U3" s="59" t="s">
+      <c r="T3" s="27"/>
+      <c r="U3" s="50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A4" s="11">
+    <row r="4" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -2678,59 +2521,59 @@
       <c r="F4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="25" t="s">
         <v>43</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>44</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>33</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="26" t="s">
         <v>46</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="27" t="s">
+      <c r="Q4" s="51"/>
+      <c r="R4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="61" t="s">
+      <c r="S4" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="59" t="s">
+      <c r="T4" s="27"/>
+      <c r="U4" s="50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A5" s="11">
+    <row r="5" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -2739,61 +2582,61 @@
       <c r="F5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="26" t="s">
         <v>46</v>
       </c>
       <c r="P5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="62" t="s">
+      <c r="Q5" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="61" t="s">
+      <c r="S5" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="59" t="s">
+      <c r="T5" s="27"/>
+      <c r="U5" s="50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A6" s="11">
+    <row r="6" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -2802,59 +2645,59 @@
       <c r="F6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="25" t="s">
         <v>57</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="26" t="s">
         <v>46</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="27" t="s">
+      <c r="Q6" s="51"/>
+      <c r="R6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="61" t="s">
+      <c r="S6" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="59" t="s">
+      <c r="T6" s="27"/>
+      <c r="U6" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A7" s="11">
+    <row r="7" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2869,16 +2712,16 @@
       <c r="H7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="28" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="17" t="s">
         <v>45</v>
       </c>
       <c r="M7" s="16" t="s">
@@ -2887,37 +2730,37 @@
       <c r="N7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="26" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="R7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="61" t="s">
+      <c r="S7" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="59" t="s">
+      <c r="T7" s="27"/>
+      <c r="U7" s="50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A8" s="11">
+    <row r="8" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -2926,128 +2769,128 @@
       <c r="F8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="25" t="s">
         <v>66</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="26" t="s">
         <v>46</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="63" t="s">
+      <c r="Q8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="61" t="s">
+      <c r="S8" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="59" t="s">
+      <c r="U8" s="50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A9" s="11">
+    <row r="9" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="17" t="s">
         <v>45</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="28" t="s">
+      <c r="N9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="63" t="s">
+      <c r="Q9" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="36" t="s">
+      <c r="R9" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="S9" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="29" t="s">
+      <c r="T9" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A10" s="11">
+    <row r="10" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -3056,1309 +2899,4296 @@
       <c r="F10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="25" t="s">
         <v>66</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="26" t="s">
         <v>79</v>
       </c>
       <c r="P10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="63" t="s">
+      <c r="Q10" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="61" t="s">
+      <c r="S10" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="59" t="s">
+      <c r="T10" s="27"/>
+      <c r="U10" s="50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A11" s="11">
+    <row r="11" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="32" t="s">
+      <c r="N11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="63" t="s">
+      <c r="Q11" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="R11" s="30" t="s">
+      <c r="R11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="61" t="s">
+      <c r="S11" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="59" t="s">
+      <c r="T11" s="27"/>
+      <c r="U11" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A12" s="11">
+    <row r="12" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="17" t="s">
         <v>45</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="28" t="s">
+      <c r="N12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="60" t="s">
+      <c r="P12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="R12" s="31" t="s">
+      <c r="R12" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S12" s="31" t="s">
+      <c r="S12" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="64" t="s">
+      <c r="T12" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A13" s="11">
+    <row r="13" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="34" t="s">
+      <c r="N13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="63" t="s">
+      <c r="P13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="R13" s="36" t="s">
+      <c r="R13" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="36" t="s">
+      <c r="S13" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="29" t="s">
+      <c r="T13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="U13" s="59" t="s">
+      <c r="U13" s="50" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A14" s="11">
+    <row r="14" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="17" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O14" s="28" t="s">
+      <c r="O14" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="63" t="s">
+      <c r="Q14" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="R14" s="30" t="s">
+      <c r="R14" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="S14" s="61" t="s">
+      <c r="S14" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="59" t="s">
+      <c r="T14" s="27"/>
+      <c r="U14" s="50" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A15" s="11">
+    <row r="15" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="17" t="s">
         <v>45</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="37" t="s">
+      <c r="N15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Q15" s="60" t="s">
+      <c r="Q15" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="R15" s="36" t="s">
+      <c r="R15" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="S15" s="36" t="s">
+      <c r="S15" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="T15" s="64" t="s">
+      <c r="T15" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="U15" s="59" t="s">
+      <c r="U15" s="50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A16" s="11">
+    <row r="16" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="34" t="s">
+      <c r="N16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="26" t="s">
         <v>79</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="63" t="s">
+      <c r="Q16" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="R16" s="36" t="s">
+      <c r="R16" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="S16" s="36" t="s">
+      <c r="S16" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="59" t="s">
+      <c r="T16" s="25"/>
+      <c r="U16" s="50" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A17" s="11">
+    <row r="17" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="25" t="s">
         <v>45</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="31" t="s">
+      <c r="R17" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="S17" s="31" t="s">
+      <c r="S17" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="T17" s="29" t="s">
+      <c r="T17" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="U17" s="59" t="s">
+      <c r="U17" s="50" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A18" s="11">
+    <row r="18" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="38" t="s">
+      <c r="N18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="60" t="s">
+      <c r="Q18" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="R18" s="31" t="s">
+      <c r="R18" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="S18" s="31" t="s">
+      <c r="S18" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="T18" s="65"/>
-      <c r="U18" s="59" t="s">
+      <c r="T18" s="56"/>
+      <c r="U18" s="50" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" ht="21.6" spans="1:21">
-      <c r="A19" s="11">
+    <row r="19" ht="21.6" customHeight="1" spans="1:21">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="37" t="s">
+      <c r="N19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="60" t="s">
+      <c r="P19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="R19" s="39" t="s">
+      <c r="R19" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="S19" s="39" t="s">
+      <c r="S19" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="T19" s="66"/>
-      <c r="U19" s="67" t="s">
+      <c r="T19" s="57"/>
+      <c r="U19" s="58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" ht="21.6" spans="1:21">
-      <c r="A20" s="11">
+    <row r="20" ht="21.6" customHeight="1" spans="1:21">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O20" s="37" t="s">
+      <c r="N20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="63" t="s">
+      <c r="P20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="R20" s="39" t="s">
+      <c r="R20" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="S20" s="39" t="s">
+      <c r="S20" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="T20" s="36"/>
-      <c r="U20" s="67" t="s">
+      <c r="T20" s="25"/>
+      <c r="U20" s="58" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:21">
-      <c r="A21" s="11">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12" t="s">
+    <row r="21" ht="24" customHeight="1" spans="1:21">
+      <c r="A21" s="12">
+        <v>23</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="D21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="39" t="s">
+      <c r="H21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="35" t="s">
         <v>30</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L21" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="T21" s="25"/>
+      <c r="U21" s="59">
+        <v>15914224184</v>
+      </c>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="1:21">
+      <c r="A22" s="12">
+        <v>24</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="28" t="s">
+      <c r="N22" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="T22" s="25"/>
+      <c r="U22" s="59">
+        <v>13022029143</v>
+      </c>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="1:21">
+      <c r="A23" s="12">
+        <v>25</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="R23" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="S23" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="T23" s="61"/>
+      <c r="U23" s="62">
+        <v>13543411433</v>
+      </c>
+    </row>
+    <row r="24" ht="26.4" customHeight="1" spans="1:21">
+      <c r="A24" s="12">
+        <v>26</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="45">
+        <v>35861</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="R24" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="64">
+        <v>18485612752</v>
+      </c>
+    </row>
+    <row r="25" ht="26.4" customHeight="1" spans="1:21">
+      <c r="A25" s="12">
+        <v>27</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="45">
+        <v>36070</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="R25" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="64">
+        <v>13481871237</v>
+      </c>
+    </row>
+    <row r="26" ht="26.4" customHeight="1" spans="1:21">
+      <c r="A26" s="12">
+        <v>28</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="45">
+        <v>36032</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="R26" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="64">
+        <v>17677484252</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:U26">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.12962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.12962962962963" style="6" customWidth="1"/>
+    <col min="5" max="5" width="4.12962962962963" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4.37962962962963" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.87962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.25" style="5" customWidth="1"/>
+    <col min="13" max="13" width="3.87962962962963" style="5" customWidth="1"/>
+    <col min="14" max="14" width="3.12962962962963" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.62962962962963" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.87962962962963" style="5" customWidth="1"/>
+    <col min="17" max="17" width="4.37962962962963" style="8" customWidth="1"/>
+    <col min="18" max="18" width="5.87962962962963" style="9" customWidth="1"/>
+    <col min="19" max="20" width="7.12962962962963" style="7" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.75" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="53.25" customHeight="1" spans="1:20">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="46"/>
+    </row>
+    <row r="2" ht="32.25" customHeight="1" spans="1:22">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="48"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="27"/>
+      <c r="U3" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="27"/>
+      <c r="U5" s="50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="27"/>
+      <c r="U6" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="27"/>
+      <c r="U7" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="U9" s="50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="P10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="27"/>
+      <c r="U10" s="50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="27"/>
+      <c r="U11" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" s="50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="U13" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" s="27"/>
+      <c r="U14" s="50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Q21" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="R21" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="S21" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="T21" s="36"/>
-      <c r="U21" s="67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" ht="21.6" spans="1:21">
-      <c r="A22" s="11">
+      <c r="Q15" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="U15" s="50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" s="25"/>
+      <c r="U16" s="50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="U17" s="50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" s="56"/>
+      <c r="U18" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:21">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="T19" s="57"/>
+      <c r="U19" s="58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" ht="26.4" customHeight="1" spans="1:21">
+      <c r="A20" s="12">
+        <v>27</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="45">
+        <v>36070</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="R20" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="64">
+        <v>13481871237</v>
+      </c>
+    </row>
+    <row r="21" ht="26.4" customHeight="1" spans="1:21">
+      <c r="A21" s="12">
+        <v>28</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="45">
+        <v>36032</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="R21" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="64">
+        <v>17677484252</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:U21">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.12962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.12962962962963" style="6" customWidth="1"/>
+    <col min="5" max="5" width="4.12962962962963" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4.37962962962963" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.87962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.25" style="5" customWidth="1"/>
+    <col min="13" max="13" width="3.87962962962963" style="5" customWidth="1"/>
+    <col min="14" max="14" width="3.12962962962963" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.62962962962963" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.87962962962963" style="5" customWidth="1"/>
+    <col min="17" max="17" width="4.37962962962963" style="8" customWidth="1"/>
+    <col min="18" max="18" width="5.87962962962963" style="9" customWidth="1"/>
+    <col min="19" max="20" width="7.12962962962963" style="7" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.75" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="53.25" customHeight="1" spans="1:20">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="46"/>
+    </row>
+    <row r="2" ht="32.25" customHeight="1" spans="1:22">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="U2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="48"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="27"/>
+      <c r="U3" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="18" t="s">
+      <c r="G4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="27"/>
+      <c r="U5" s="50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="40" t="s">
+      <c r="I6" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="27"/>
+      <c r="U6" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="27"/>
+      <c r="U7" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="U9" s="50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="27"/>
+      <c r="U10" s="50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="27"/>
+      <c r="U11" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" s="50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="U13" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" s="27"/>
+      <c r="U14" s="50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="U15" s="50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" s="25"/>
+      <c r="U16" s="50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="U17" s="50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" s="56"/>
+      <c r="U18" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:21">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="T19" s="57"/>
+      <c r="U19" s="58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="1:21">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:21">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="T21" s="25"/>
+      <c r="U21" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="1:21">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>44</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="14" t="s">
         <v>72</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="O22" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="P22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="R22" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="S22" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="T22" s="36"/>
-      <c r="U22" s="67" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" ht="21.6" spans="1:21">
-      <c r="A23" s="11">
+      <c r="P22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="T22" s="25"/>
+      <c r="U22" s="58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" ht="21.6" customHeight="1" spans="1:21">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="J23" s="40" t="s">
+      <c r="I23" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>161</v>
+      <c r="K23" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="28" t="s">
+      <c r="O23" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="P23" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="63" t="s">
+      <c r="P23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="S23" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="T23" s="25"/>
+      <c r="U23" s="58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" ht="21.6" customHeight="1" spans="1:21">
+      <c r="A24" s="12">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="1:21">
+      <c r="A25" s="12">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="T25" s="25"/>
+      <c r="U25" s="59">
+        <v>15914224184</v>
+      </c>
+    </row>
+    <row r="26" ht="36" customHeight="1" spans="1:21">
+      <c r="A26" s="12">
+        <v>24</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="R26" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="S26" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="T26" s="25"/>
+      <c r="U26" s="59">
+        <v>13022029143</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="1:21">
+      <c r="A27" s="12">
+        <v>25</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="R27" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="S27" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="T27" s="61"/>
+      <c r="U27" s="62">
+        <v>13543411433</v>
+      </c>
+    </row>
+    <row r="28" ht="26.4" customHeight="1" spans="1:21">
+      <c r="A28" s="12">
+        <v>26</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="R23" s="39" t="s">
+      <c r="H28" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="S23" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="T23" s="36"/>
-      <c r="U23" s="67" t="s">
+      <c r="I28" s="45">
+        <v>35861</v>
+      </c>
+      <c r="J28" s="23" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="24" ht="21.6" spans="1:21">
-      <c r="A24" s="11">
+      <c r="K28" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="R28" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="64">
+        <v>18485612752</v>
+      </c>
+    </row>
+    <row r="29" ht="26.4" customHeight="1" spans="1:21">
+      <c r="A29" s="12">
+        <v>27</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C29" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="45">
+        <v>36070</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="R29" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="64">
+        <v>13481871237</v>
+      </c>
+    </row>
+    <row r="30" ht="26.4" customHeight="1" spans="1:21">
+      <c r="A30" s="12">
+        <v>28</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C30" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="D30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="39" t="s">
+      <c r="G30" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="45">
+        <v>36032</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="J24" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="13" t="s">
+      <c r="L30" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="O30" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="12" t="s">
+      <c r="P30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="R24" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="S24" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="T24" s="36"/>
-      <c r="U24" s="67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" ht="24" spans="1:21">
-      <c r="A25" s="11">
-        <v>23</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="O25" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="P25" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="R25" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="S25" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="T25" s="36"/>
-      <c r="U25" s="68">
-        <v>15914224184</v>
-      </c>
-    </row>
-    <row r="26" ht="36" spans="1:21">
-      <c r="A26" s="11">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="L26" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="P26" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="R26" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="S26" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="T26" s="36"/>
-      <c r="U26" s="68">
-        <v>13022029143</v>
-      </c>
-    </row>
-    <row r="27" ht="24" spans="1:21">
-      <c r="A27" s="11">
-        <v>25</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="J27" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="N27" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="O27" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="P27" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q27" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="R27" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="S27" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="T27" s="70"/>
-      <c r="U27" s="71">
-        <v>13543411433</v>
-      </c>
-    </row>
-    <row r="28" ht="26.4" spans="1:21">
-      <c r="A28" s="11">
-        <v>26</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="I28" s="54">
-        <v>35861</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="O28" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="R28" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="74">
-        <v>18485612752</v>
-      </c>
-    </row>
-    <row r="29" ht="26.4" spans="1:21">
-      <c r="A29" s="11">
-        <v>27</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="I29" s="54">
-        <v>36070</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="O29" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="P29" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="R29" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="74">
-        <v>13481871237</v>
-      </c>
-    </row>
-    <row r="30" ht="26.4" spans="1:21">
-      <c r="A30" s="11">
-        <v>28</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="I30" s="54">
-        <v>36032</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="O30" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="P30" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q30" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="R30" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="74">
+      <c r="R30" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="64">
         <v>17677484252</v>
       </c>
     </row>
@@ -4370,65 +7200,199 @@
     <mergeCell ref="A1:T1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:L1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="3" width="25" style="1" customWidth="1"/>
+    <col min="4" max="12" width="25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="43.2" spans="2:12">
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="17.4" customHeight="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>196</v>
+      <c r="J1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2/B2</f>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2/B2</f>
+        <v>0.277777777777778</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C2+E2</f>
+        <v>19</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2/B2</f>
+        <v>1.05555555555556</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2">
+        <f>I2/B2</f>
+        <v>1.05555555555556</v>
+      </c>
+      <c r="K2" s="1">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2">
+        <f>K2/B2</f>
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3/B3</f>
+        <v>0.739130434782609</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3/B3</f>
+        <v>0.304347826086957</v>
+      </c>
+      <c r="G3" s="2">
+        <f>C3+E3</f>
+        <v>24</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3/B3</f>
+        <v>1.04347826086957</v>
+      </c>
+      <c r="I3" s="2">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3/B3</f>
+        <v>1.04347826086957</v>
+      </c>
+      <c r="K3" s="2">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <f>K3/B3</f>
+        <v>0.869565217391304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="1">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4/B4</f>
+        <v>0.703703703703704</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4/B4</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G4" s="2">
+        <f>C4+E4</f>
+        <v>28</v>
+      </c>
+      <c r="H4" s="2">
+        <f>G4/B4</f>
+        <v>1.03703703703704</v>
+      </c>
+      <c r="I4" s="2">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2">
+        <f>I4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2">
+        <f>K4/B4</f>
+        <v>0.851851851851852</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/tools/demo.xlsx
+++ b/tools/demo.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2021育才幼 " sheetId="7" r:id="rId1"/>
     <sheet name="2010育才幼 " sheetId="8" r:id="rId2"/>
     <sheet name="2022育才幼" sheetId="6" r:id="rId3"/>
-    <sheet name="统计结果" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2021育才幼 '!$A$2:$U$26</definedName>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="194">
   <si>
     <t>2022年职工花名册表
 顺序：正副园长、保教主任、教师、保健员、保育员、专职财务、后勤人员</t>
@@ -914,39 +913,6 @@
   <si>
     <t>18666099161</t>
   </si>
-  <si>
-    <t>年份</t>
-  </si>
-  <si>
-    <t>专任教师</t>
-  </si>
-  <si>
-    <t>本科学历人数</t>
-  </si>
-  <si>
-    <t>占专任教师总数%</t>
-  </si>
-  <si>
-    <t>大专学历人数</t>
-  </si>
-  <si>
-    <t>大专或以上学历人数</t>
-  </si>
-  <si>
-    <t>持有教师资格证人数</t>
-  </si>
-  <si>
-    <t>学前教育专业毕业人数</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
 </sst>
 </file>
 
@@ -959,24 +925,10 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;.&quot;m&quot;.&quot;d"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1259,18 +1211,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1474,6 +1420,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1483,15 +1438,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1639,336 +1585,327 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2327,1629 +2264,1629 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.12962962962963" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.12962962962963" style="6" customWidth="1"/>
-    <col min="5" max="5" width="4.12962962962963" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="4.37962962962963" style="5" customWidth="1"/>
-    <col min="8" max="8" width="3.87962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="5" customWidth="1"/>
-    <col min="13" max="13" width="3.87962962962963" style="5" customWidth="1"/>
-    <col min="14" max="14" width="3.12962962962963" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.62962962962963" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.87962962962963" style="5" customWidth="1"/>
-    <col min="17" max="17" width="4.37962962962963" style="8" customWidth="1"/>
-    <col min="18" max="18" width="5.87962962962963" style="9" customWidth="1"/>
-    <col min="19" max="20" width="7.12962962962963" style="7" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.75" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.62962962962963" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.12962962962963" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.12962962962963" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.12962962962963" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.87962962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.87962962962963" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.12962962962963" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.62962962962963" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.87962962962963" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.37962962962963" style="5" customWidth="1"/>
+    <col min="18" max="18" width="5.87962962962963" style="6" customWidth="1"/>
+    <col min="19" max="20" width="7.12962962962963" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.75" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customHeight="1" spans="1:20">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="46"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="43"/>
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:22">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="48"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
-      <c r="A3" s="12">
+      <c r="V2" s="45"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="26" t="s">
+      <c r="N3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="25" t="s">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="50" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A4" s="12">
+    <row r="4" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="26" t="s">
+      <c r="N4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="25" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="50" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A5" s="12">
+    <row r="5" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="26" t="s">
+      <c r="N5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="53" t="s">
+      <c r="Q5" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="S5" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="50" t="s">
+      <c r="T5" s="24"/>
+      <c r="U5" s="47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A6" s="12">
+    <row r="6" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="26" t="s">
+      <c r="N6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="25" t="s">
+      <c r="Q6" s="48"/>
+      <c r="R6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="S6" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="50" t="s">
+      <c r="T6" s="24"/>
+      <c r="U6" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A7" s="12">
+    <row r="7" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="26" t="s">
+      <c r="N7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="54" t="s">
+      <c r="Q7" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="52" t="s">
+      <c r="S7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="50" t="s">
+      <c r="T7" s="24"/>
+      <c r="U7" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A8" s="12">
+    <row r="8" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="26" t="s">
+      <c r="N8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="54" t="s">
+      <c r="Q8" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="50" t="s">
+      <c r="U8" s="47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A9" s="12">
+    <row r="9" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="26" t="s">
+      <c r="N9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="54" t="s">
+      <c r="Q9" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="27" t="s">
+      <c r="T9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="50" t="s">
+      <c r="U9" s="47" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A10" s="12">
+    <row r="10" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="26" t="s">
+      <c r="N10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="Q10" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="50" t="s">
+      <c r="T10" s="24"/>
+      <c r="U10" s="47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A11" s="12">
+    <row r="11" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="30" t="s">
+      <c r="N11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="54" t="s">
+      <c r="Q11" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="R11" s="28" t="s">
+      <c r="R11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="T11" s="27"/>
-      <c r="U11" s="50" t="s">
+      <c r="T11" s="24"/>
+      <c r="U11" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A12" s="12">
+    <row r="12" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="26" t="s">
+      <c r="N12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="51" t="s">
+      <c r="P12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="R12" s="29" t="s">
+      <c r="R12" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="S12" s="29" t="s">
+      <c r="S12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="55" t="s">
+      <c r="T12" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="U12" s="50" t="s">
+      <c r="U12" s="47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A13" s="12">
+    <row r="13" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="26" t="s">
+      <c r="N13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="54" t="s">
+      <c r="P13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="27" t="s">
+      <c r="T13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U13" s="50" t="s">
+      <c r="U13" s="47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A14" s="12">
+    <row r="14" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="54" t="s">
+      <c r="Q14" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="R14" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="50" t="s">
+      <c r="T14" s="24"/>
+      <c r="U14" s="47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A15" s="12">
+    <row r="15" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="32" t="s">
+      <c r="N15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="T15" s="55" t="s">
+      <c r="T15" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="U15" s="50" t="s">
+      <c r="U15" s="47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A16" s="12">
+    <row r="16" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="26" t="s">
+      <c r="N16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="54" t="s">
+      <c r="Q16" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="25"/>
-      <c r="U16" s="50" t="s">
+      <c r="T16" s="22"/>
+      <c r="U16" s="47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A17" s="12">
+    <row r="17" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="26" t="s">
+      <c r="N17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="51" t="s">
+      <c r="Q17" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="S17" s="29" t="s">
+      <c r="S17" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="T17" s="27" t="s">
+      <c r="T17" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U17" s="50" t="s">
+      <c r="U17" s="47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A18" s="12">
+    <row r="18" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="33" t="s">
+      <c r="N18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="51" t="s">
+      <c r="Q18" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="T18" s="56"/>
-      <c r="U18" s="50" t="s">
+      <c r="T18" s="53"/>
+      <c r="U18" s="47" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" ht="21.6" customHeight="1" spans="1:21">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="32" t="s">
+      <c r="N19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="51" t="s">
+      <c r="P19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="R19" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="S19" s="34" t="s">
+      <c r="S19" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="T19" s="57"/>
-      <c r="U19" s="58" t="s">
+      <c r="T19" s="54"/>
+      <c r="U19" s="55" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" ht="21.6" customHeight="1" spans="1:21">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="35" t="s">
+      <c r="M20" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O20" s="32" t="s">
+      <c r="N20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="54" t="s">
+      <c r="P20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="R20" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="S20" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="T20" s="25"/>
-      <c r="U20" s="58" t="s">
+      <c r="T20" s="22"/>
+      <c r="U20" s="55" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:21">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>23</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="36" t="s">
+      <c r="L21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="N21" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="36" t="s">
+      <c r="N21" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="P21" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="54" t="s">
+      <c r="P21" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="R21" s="34" t="s">
+      <c r="R21" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="S21" s="34" t="s">
+      <c r="S21" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="T21" s="25"/>
-      <c r="U21" s="59">
+      <c r="T21" s="22"/>
+      <c r="U21" s="56">
         <v>15914224184</v>
       </c>
     </row>
     <row r="22" ht="36" customHeight="1" spans="1:21">
-      <c r="A22" s="12">
-        <v>24</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="9">
+        <v>24</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="36" t="s">
+      <c r="L22" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="36" t="s">
+      <c r="M22" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="O22" s="36" t="s">
+      <c r="N22" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="P22" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="51" t="s">
+      <c r="P22" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="R22" s="34" t="s">
+      <c r="R22" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="S22" s="34" t="s">
+      <c r="S22" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="T22" s="25"/>
-      <c r="U22" s="59">
+      <c r="T22" s="22"/>
+      <c r="U22" s="56">
         <v>13022029143</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:21">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>25</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="42" t="s">
+      <c r="N23" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="P23" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="60" t="s">
+      <c r="P23" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="R23" s="40" t="s">
+      <c r="R23" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="S23" s="40" t="s">
+      <c r="S23" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="T23" s="61"/>
-      <c r="U23" s="62">
+      <c r="T23" s="58"/>
+      <c r="U23" s="59">
         <v>13543411433</v>
       </c>
     </row>
     <row r="24" ht="26.4" customHeight="1" spans="1:21">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>26</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="23" t="s">
+      <c r="D24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="42">
         <v>35861</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="63" t="s">
+      <c r="P24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="R24" s="63" t="s">
+      <c r="R24" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="64">
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="61">
         <v>18485612752</v>
       </c>
     </row>
     <row r="25" ht="26.4" customHeight="1" spans="1:21">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>27</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="42">
         <v>36070</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="P25" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="63" t="s">
+      <c r="P25" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="R25" s="63" t="s">
+      <c r="R25" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="64">
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="61">
         <v>13481871237</v>
       </c>
     </row>
     <row r="26" ht="26.4" customHeight="1" spans="1:21">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>28</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="23" t="s">
+      <c r="D26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="42">
         <v>36032</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="P26" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="64" t="s">
+      <c r="P26" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="R26" s="63" t="s">
+      <c r="R26" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="64">
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="61">
         <v>17677484252</v>
       </c>
     </row>
@@ -3977,1316 +3914,1316 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.12962962962963" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.12962962962963" style="6" customWidth="1"/>
-    <col min="5" max="5" width="4.12962962962963" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="4.37962962962963" style="5" customWidth="1"/>
-    <col min="8" max="8" width="3.87962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="5" customWidth="1"/>
-    <col min="13" max="13" width="3.87962962962963" style="5" customWidth="1"/>
-    <col min="14" max="14" width="3.12962962962963" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.62962962962963" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.87962962962963" style="5" customWidth="1"/>
-    <col min="17" max="17" width="4.37962962962963" style="8" customWidth="1"/>
-    <col min="18" max="18" width="5.87962962962963" style="9" customWidth="1"/>
-    <col min="19" max="20" width="7.12962962962963" style="7" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.75" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.62962962962963" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.12962962962963" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.12962962962963" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.12962962962963" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.87962962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.87962962962963" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.12962962962963" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.62962962962963" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.87962962962963" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.37962962962963" style="5" customWidth="1"/>
+    <col min="18" max="18" width="5.87962962962963" style="6" customWidth="1"/>
+    <col min="19" max="20" width="7.12962962962963" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.75" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customHeight="1" spans="1:20">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="46"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="43"/>
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:22">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="48"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
-      <c r="A3" s="12">
+      <c r="V2" s="45"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="26" t="s">
+      <c r="N3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="25" t="s">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="50" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A4" s="12">
+    <row r="4" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="26" t="s">
+      <c r="N4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="25" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="50" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A5" s="12">
+    <row r="5" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="26" t="s">
+      <c r="N5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="53" t="s">
+      <c r="Q5" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="S5" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="50" t="s">
+      <c r="T5" s="24"/>
+      <c r="U5" s="47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A6" s="12">
+    <row r="6" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="26" t="s">
+      <c r="N6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="25" t="s">
+      <c r="Q6" s="48"/>
+      <c r="R6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="S6" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="50" t="s">
+      <c r="T6" s="24"/>
+      <c r="U6" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A7" s="12">
+    <row r="7" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="26" t="s">
+      <c r="N7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="54" t="s">
+      <c r="Q7" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="52" t="s">
+      <c r="S7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="50" t="s">
+      <c r="T7" s="24"/>
+      <c r="U7" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A8" s="12">
+    <row r="8" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="26" t="s">
+      <c r="N8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="54" t="s">
+      <c r="Q8" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="50" t="s">
+      <c r="U8" s="47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A9" s="12">
+    <row r="9" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="26" t="s">
+      <c r="N9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="54" t="s">
+      <c r="Q9" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="27" t="s">
+      <c r="T9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="50" t="s">
+      <c r="U9" s="47" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A10" s="12">
+    <row r="10" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="26" t="s">
+      <c r="N10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="Q10" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="50" t="s">
+      <c r="T10" s="24"/>
+      <c r="U10" s="47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A11" s="12">
+    <row r="11" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="30" t="s">
+      <c r="N11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="54" t="s">
+      <c r="Q11" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="R11" s="28" t="s">
+      <c r="R11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="T11" s="27"/>
-      <c r="U11" s="50" t="s">
+      <c r="T11" s="24"/>
+      <c r="U11" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A12" s="12">
+    <row r="12" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="26" t="s">
+      <c r="N12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="51" t="s">
+      <c r="P12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="R12" s="29" t="s">
+      <c r="R12" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="S12" s="29" t="s">
+      <c r="S12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="55" t="s">
+      <c r="T12" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="U12" s="50" t="s">
+      <c r="U12" s="47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A13" s="12">
+    <row r="13" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="26" t="s">
+      <c r="N13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="54" t="s">
+      <c r="P13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="27" t="s">
+      <c r="T13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U13" s="50" t="s">
+      <c r="U13" s="47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A14" s="12">
+    <row r="14" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="54" t="s">
+      <c r="Q14" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="R14" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="50" t="s">
+      <c r="T14" s="24"/>
+      <c r="U14" s="47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A15" s="12">
+    <row r="15" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="32" t="s">
+      <c r="N15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="T15" s="55" t="s">
+      <c r="T15" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="U15" s="50" t="s">
+      <c r="U15" s="47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A16" s="12">
+    <row r="16" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="26" t="s">
+      <c r="N16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="54" t="s">
+      <c r="Q16" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="25"/>
-      <c r="U16" s="50" t="s">
+      <c r="T16" s="22"/>
+      <c r="U16" s="47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A17" s="12">
+    <row r="17" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="26" t="s">
+      <c r="N17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="51" t="s">
+      <c r="Q17" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="S17" s="29" t="s">
+      <c r="S17" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="T17" s="27" t="s">
+      <c r="T17" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U17" s="50" t="s">
+      <c r="U17" s="47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A18" s="12">
+    <row r="18" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="33" t="s">
+      <c r="N18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="51" t="s">
+      <c r="Q18" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="T18" s="56"/>
-      <c r="U18" s="50" t="s">
+      <c r="T18" s="53"/>
+      <c r="U18" s="47" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" ht="21.6" customHeight="1" spans="1:21">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="32" t="s">
+      <c r="N19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="51" t="s">
+      <c r="P19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="R19" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="S19" s="34" t="s">
+      <c r="S19" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="T19" s="57"/>
-      <c r="U19" s="58" t="s">
+      <c r="T19" s="54"/>
+      <c r="U19" s="55" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" ht="26.4" customHeight="1" spans="1:21">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>27</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="42">
         <v>36070</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="23" t="s">
+      <c r="N20" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="P20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="63" t="s">
+      <c r="P20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="R20" s="63" t="s">
+      <c r="R20" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="64">
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="61">
         <v>13481871237</v>
       </c>
     </row>
     <row r="21" ht="26.4" customHeight="1" spans="1:21">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>28</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="42">
         <v>36032</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="P21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="64" t="s">
+      <c r="P21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="R21" s="63" t="s">
+      <c r="R21" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="64">
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="61">
         <v>17677484252</v>
       </c>
     </row>
@@ -5308,1887 +5245,1887 @@
   <sheetPr/>
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.12962962962963" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.12962962962963" style="6" customWidth="1"/>
-    <col min="5" max="5" width="4.12962962962963" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="4.37962962962963" style="5" customWidth="1"/>
-    <col min="8" max="8" width="3.87962962962963" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="5" customWidth="1"/>
-    <col min="13" max="13" width="3.87962962962963" style="5" customWidth="1"/>
-    <col min="14" max="14" width="3.12962962962963" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.62962962962963" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.87962962962963" style="5" customWidth="1"/>
-    <col min="17" max="17" width="4.37962962962963" style="8" customWidth="1"/>
-    <col min="18" max="18" width="5.87962962962963" style="9" customWidth="1"/>
-    <col min="19" max="20" width="7.12962962962963" style="7" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.75" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.62962962962963" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.12962962962963" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.12962962962963" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.12962962962963" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.87962962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.87962962962963" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.12962962962963" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.62962962962963" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.87962962962963" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.37962962962963" style="5" customWidth="1"/>
+    <col min="18" max="18" width="5.87962962962963" style="6" customWidth="1"/>
+    <col min="19" max="20" width="7.12962962962963" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.75" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customHeight="1" spans="1:20">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="46"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="43"/>
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:22">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="48"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
-      <c r="A3" s="12">
+      <c r="V2" s="45"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="26" t="s">
+      <c r="N3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="25" t="s">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="50" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A4" s="12">
+    <row r="4" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="26" t="s">
+      <c r="N4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="25" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="50" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A5" s="12">
+    <row r="5" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="26" t="s">
+      <c r="N5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="53" t="s">
+      <c r="Q5" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="S5" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="50" t="s">
+      <c r="T5" s="24"/>
+      <c r="U5" s="47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A6" s="12">
+    <row r="6" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="26" t="s">
+      <c r="N6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="25" t="s">
+      <c r="Q6" s="48"/>
+      <c r="R6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="S6" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="50" t="s">
+      <c r="T6" s="24"/>
+      <c r="U6" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A7" s="12">
+    <row r="7" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="26" t="s">
+      <c r="N7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="54" t="s">
+      <c r="Q7" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="52" t="s">
+      <c r="S7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="50" t="s">
+      <c r="T7" s="24"/>
+      <c r="U7" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A8" s="12">
+    <row r="8" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="26" t="s">
+      <c r="N8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="54" t="s">
+      <c r="Q8" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="50" t="s">
+      <c r="U8" s="47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A9" s="12">
+    <row r="9" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="26" t="s">
+      <c r="N9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="54" t="s">
+      <c r="Q9" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="27" t="s">
+      <c r="T9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="50" t="s">
+      <c r="U9" s="47" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A10" s="12">
+    <row r="10" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="26" t="s">
+      <c r="N10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="Q10" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="50" t="s">
+      <c r="T10" s="24"/>
+      <c r="U10" s="47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A11" s="12">
+    <row r="11" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="30" t="s">
+      <c r="N11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="54" t="s">
+      <c r="Q11" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="R11" s="28" t="s">
+      <c r="R11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="T11" s="27"/>
-      <c r="U11" s="50" t="s">
+      <c r="T11" s="24"/>
+      <c r="U11" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A12" s="12">
+    <row r="12" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="26" t="s">
+      <c r="N12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="51" t="s">
+      <c r="P12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="R12" s="29" t="s">
+      <c r="R12" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="S12" s="29" t="s">
+      <c r="S12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="55" t="s">
+      <c r="T12" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="U12" s="50" t="s">
+      <c r="U12" s="47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A13" s="12">
+    <row r="13" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="26" t="s">
+      <c r="N13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="54" t="s">
+      <c r="P13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="27" t="s">
+      <c r="T13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U13" s="50" t="s">
+      <c r="U13" s="47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A14" s="12">
+    <row r="14" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="54" t="s">
+      <c r="Q14" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="R14" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="50" t="s">
+      <c r="T14" s="24"/>
+      <c r="U14" s="47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A15" s="12">
+    <row r="15" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="32" t="s">
+      <c r="N15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="T15" s="55" t="s">
+      <c r="T15" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="U15" s="50" t="s">
+      <c r="U15" s="47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A16" s="12">
+    <row r="16" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="26" t="s">
+      <c r="N16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="54" t="s">
+      <c r="Q16" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="25"/>
-      <c r="U16" s="50" t="s">
+      <c r="T16" s="22"/>
+      <c r="U16" s="47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A17" s="12">
+    <row r="17" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="26" t="s">
+      <c r="N17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="51" t="s">
+      <c r="Q17" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="S17" s="29" t="s">
+      <c r="S17" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="T17" s="27" t="s">
+      <c r="T17" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U17" s="50" t="s">
+      <c r="U17" s="47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
-      <c r="A18" s="12">
+    <row r="18" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:21">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="33" t="s">
+      <c r="N18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="51" t="s">
+      <c r="Q18" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="T18" s="56"/>
-      <c r="U18" s="50" t="s">
+      <c r="T18" s="53"/>
+      <c r="U18" s="47" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" ht="21.6" customHeight="1" spans="1:21">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="32" t="s">
+      <c r="N19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="51" t="s">
+      <c r="P19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="R19" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="S19" s="34" t="s">
+      <c r="S19" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="T19" s="57"/>
-      <c r="U19" s="58" t="s">
+      <c r="T19" s="54"/>
+      <c r="U19" s="55" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" ht="21.6" customHeight="1" spans="1:21">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="35" t="s">
+      <c r="M20" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O20" s="32" t="s">
+      <c r="N20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="54" t="s">
+      <c r="P20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="R20" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="S20" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="T20" s="25"/>
-      <c r="U20" s="58" t="s">
+      <c r="T20" s="22"/>
+      <c r="U20" s="55" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:21">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="35" t="s">
+      <c r="M21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="26" t="s">
+      <c r="N21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q21" s="54" t="s">
+      <c r="Q21" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="R21" s="34" t="s">
+      <c r="R21" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="S21" s="34" t="s">
+      <c r="S21" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="T21" s="25"/>
-      <c r="U21" s="58" t="s">
+      <c r="T21" s="22"/>
+      <c r="U21" s="55" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="22" ht="21.6" customHeight="1" spans="1:21">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="N22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O22" s="26" t="s">
+      <c r="N22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="P22" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="51" t="s">
+      <c r="P22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="R22" s="34" t="s">
+      <c r="R22" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="S22" s="34" t="s">
+      <c r="S22" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="T22" s="25"/>
-      <c r="U22" s="58" t="s">
+      <c r="T22" s="22"/>
+      <c r="U22" s="55" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="23" ht="21.6" customHeight="1" spans="1:21">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="26" t="s">
+      <c r="N23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="P23" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="54" t="s">
+      <c r="P23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="R23" s="34" t="s">
+      <c r="R23" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="S23" s="34" t="s">
+      <c r="S23" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="T23" s="25"/>
-      <c r="U23" s="58" t="s">
+      <c r="T23" s="22"/>
+      <c r="U23" s="55" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="24" ht="21.6" customHeight="1" spans="1:21">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="13" t="s">
+      <c r="N24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="P24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="51" t="s">
+      <c r="P24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="R24" s="34" t="s">
+      <c r="R24" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="S24" s="34" t="s">
+      <c r="S24" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="T24" s="25"/>
-      <c r="U24" s="58" t="s">
+      <c r="T24" s="22"/>
+      <c r="U24" s="55" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1" spans="1:21">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="J25" s="35" t="s">
+      <c r="J25" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M25" s="36" t="s">
+      <c r="M25" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="N25" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="O25" s="36" t="s">
+      <c r="N25" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="54" t="s">
+      <c r="P25" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="R25" s="34" t="s">
+      <c r="R25" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="S25" s="34" t="s">
+      <c r="S25" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="T25" s="25"/>
-      <c r="U25" s="59">
+      <c r="T25" s="22"/>
+      <c r="U25" s="56">
         <v>15914224184</v>
       </c>
     </row>
     <row r="26" ht="36" customHeight="1" spans="1:21">
-      <c r="A26" s="12">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="M26" s="36" t="s">
+      <c r="M26" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" s="36" t="s">
+      <c r="N26" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="P26" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="51" t="s">
+      <c r="P26" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="R26" s="34" t="s">
+      <c r="R26" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="S26" s="34" t="s">
+      <c r="S26" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="T26" s="25"/>
-      <c r="U26" s="59">
+      <c r="T26" s="22"/>
+      <c r="U26" s="56">
         <v>13022029143</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1" spans="1:21">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="42" t="s">
+      <c r="K27" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="42" t="s">
+      <c r="L27" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N27" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="O27" s="42" t="s">
+      <c r="N27" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="P27" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q27" s="60" t="s">
+      <c r="P27" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="R27" s="40" t="s">
+      <c r="R27" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="S27" s="40" t="s">
+      <c r="S27" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="T27" s="61"/>
-      <c r="U27" s="62">
+      <c r="T27" s="58"/>
+      <c r="U27" s="59">
         <v>13543411433</v>
       </c>
     </row>
     <row r="28" ht="26.4" customHeight="1" spans="1:21">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="23" t="s">
+      <c r="D28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="42">
         <v>35861</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="P28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" s="63" t="s">
+      <c r="P28" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="R28" s="63" t="s">
+      <c r="R28" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="64">
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="61">
         <v>18485612752</v>
       </c>
     </row>
     <row r="29" ht="26.4" customHeight="1" spans="1:21">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="23" t="s">
+      <c r="D29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="42">
         <v>36070</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M29" s="23" t="s">
+      <c r="M29" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="23" t="s">
+      <c r="N29" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="P29" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="63" t="s">
+      <c r="P29" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="R29" s="63" t="s">
+      <c r="R29" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="64">
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="61">
         <v>13481871237</v>
       </c>
     </row>
     <row r="30" ht="26.4" customHeight="1" spans="1:21">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="23" t="s">
+      <c r="D30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="42">
         <v>36032</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="O30" s="23" t="s">
+      <c r="O30" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="P30" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q30" s="64" t="s">
+      <c r="P30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="R30" s="63" t="s">
+      <c r="R30" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="64">
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="61">
         <v>17677484252</v>
       </c>
     </row>
@@ -7203,196 +7140,4 @@
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="12" width="25" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.4" customHeight="1" spans="1:12">
-      <c r="A1" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="1">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2">
-        <f>C2/B2</f>
-        <v>0.777777777777778</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2">
-        <f>E2/B2</f>
-        <v>0.277777777777778</v>
-      </c>
-      <c r="G2" s="1">
-        <f>C2+E2</f>
-        <v>19</v>
-      </c>
-      <c r="H2" s="2">
-        <f>G2/B2</f>
-        <v>1.05555555555556</v>
-      </c>
-      <c r="I2" s="1">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2">
-        <f>I2/B2</f>
-        <v>1.05555555555556</v>
-      </c>
-      <c r="K2" s="1">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2">
-        <f>K2/B2</f>
-        <v>0.888888888888889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="1">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2">
-        <f>C3/B3</f>
-        <v>0.739130434782609</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <f>E3/B3</f>
-        <v>0.304347826086957</v>
-      </c>
-      <c r="G3" s="2">
-        <f>C3+E3</f>
-        <v>24</v>
-      </c>
-      <c r="H3" s="2">
-        <f>G3/B3</f>
-        <v>1.04347826086957</v>
-      </c>
-      <c r="I3" s="2">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2">
-        <f>I3/B3</f>
-        <v>1.04347826086957</v>
-      </c>
-      <c r="K3" s="2">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2">
-        <f>K3/B3</f>
-        <v>0.869565217391304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="1">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <f>C4/B4</f>
-        <v>0.703703703703704</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2">
-        <f>E4/B4</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G4" s="2">
-        <f>C4+E4</f>
-        <v>28</v>
-      </c>
-      <c r="H4" s="2">
-        <f>G4/B4</f>
-        <v>1.03703703703704</v>
-      </c>
-      <c r="I4" s="2">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2">
-        <f>I4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>23</v>
-      </c>
-      <c r="L4" s="2">
-        <f>K4/B4</f>
-        <v>0.851851851851852</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
-</worksheet>
 </file>